--- a/biology/Zoologie/Austrosaurus/Austrosaurus.xlsx
+++ b/biology/Zoologie/Austrosaurus/Austrosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrosaurus mckillopi
-Austrosaurus est un genre éteint de dinosaures sauropodes, un titanosaure basal[3] ou un Titanosauriformes appartenant peut-être au clade des Somphospondyli[4]. Il a vécu à la fin du Crétacé inférieur en Australie.
-Une seule espèce est connue, Austrosaurus mckillopi, décrite à l'origine par Albert Heber Longman en 1933, puis réétudiée en particulier par S. A. Hocknull et ses collègues en 2009[3] et J. P. Poropat et ses collègues en 2017[4].
+Austrosaurus est un genre éteint de dinosaures sauropodes, un titanosaure basal ou un Titanosauriformes appartenant peut-être au clade des Somphospondyli. Il a vécu à la fin du Crétacé inférieur en Australie.
+Une seule espèce est connue, Austrosaurus mckillopi, décrite à l'origine par Albert Heber Longman en 1933, puis réétudiée en particulier par S. A. Hocknull et ses collègues en 2009 et J. P. Poropat et ses collègues en 2017.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrosaurus a été découvert dans la formation géologique d'Allaru dans le centre-ouest du Queensland en Australie, cette formation est datée de l'Albien, d'un âge environ entre 110 et 105 Ma (millions d'années)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrosaurus a été découvert dans la formation géologique d'Allaru dans le centre-ouest du Queensland en Australie, cette formation est datée de l'Albien, d'un âge environ entre 110 et 105 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrosaurus avait une hauteur d'environ 4,10 m aux épaules et 3,90 m aux hanches, ce qui lui donnait un corps à l'allure presque horizontale. En 2010, Gregory S. Paul, estime sa longueur à 20 m pour une masse d'environ 16 tonnes[6]; en 2011, Thomas Holtz retient la même longueur pour une masse d'une douzaine de tonnes[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrosaurus avait une hauteur d'environ 4,10 m aux épaules et 3,90 m aux hanches, ce qui lui donnait un corps à l'allure presque horizontale. En 2010, Gregory S. Paul, estime sa longueur à 20 m pour une masse d'environ 16 tonnes; en 2011, Thomas Holtz retient la même longueur pour une masse d'une douzaine de tonnes.
 </t>
         </is>
       </c>
@@ -575,12 +591,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrosaurus a d'abord été classé dans la famille des cétiosauridés, comme Patagosaurus ou Shunosaurus.
-En 2009, Hocknull et ces collègues décrivent un nouveau genre de sauropodes provenant des mêmes sites fossilifères : Wintonotitan[3] à partir de restes osseux préalablement attribués à Austrosaurus par Coombs et Molnar en 1981[5]. 
-Hocknull indique qu'Austrosaurus mckillopi est peu différent du spécimen QMF 7292 qui est l'holotype de Wintonotitan wattsii, et qu'il devrait être considéré comme un nom douteux[3].
-En 2017,  Poropat et ses collègues étudie des ossements supplémentaires découverts sur le site ayant livré Austrosaurus. Ils les attribuent  à l'holotype d'Austrosaurus, qu'il considère comme un titanosauriformes valide, provisoirement attribuable au clade des Somphospondyli[4].
+En 2009, Hocknull et ces collègues décrivent un nouveau genre de sauropodes provenant des mêmes sites fossilifères : Wintonotitan à partir de restes osseux préalablement attribués à Austrosaurus par Coombs et Molnar en 1981. 
+Hocknull indique qu'Austrosaurus mckillopi est peu différent du spécimen QMF 7292 qui est l'holotype de Wintonotitan wattsii, et qu'il devrait être considéré comme un nom douteux.
+En 2017,  Poropat et ses collègues étudie des ossements supplémentaires découverts sur le site ayant livré Austrosaurus. Ils les attribuent  à l'holotype d'Austrosaurus, qu'il considère comme un titanosauriformes valide, provisoirement attribuable au clade des Somphospondyli.
 </t>
         </is>
       </c>
